--- a/biology/Médecine/Louis_Née_(médecin)/Louis_Née_(médecin).xlsx
+++ b/biology/Médecine/Louis_Née_(médecin)/Louis_Née_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_N%C3%A9e_(m%C3%A9decin)</t>
+          <t>Louis_Née_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Née (24 mai 1881 à Rouen[1] - 29 avril 1969 à Rouen) est un médecin et homme politique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Née (24 mai 1881 à Rouen - 29 avril 1969 à Rouen) est un médecin et homme politique français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_N%C3%A9e_(m%C3%A9decin)</t>
+          <t>Louis_Née_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Née est maire de Rouen du 29 avril 1943 au 31 mai 1943, et conseiller d’arrondissement[2].
-C’est aussi un médecin rouennais, boulevard de la Marne no 63 à Rouen, professeur à l’école de médecine et médecin en chef à l’Hôtel-Dieu[2]. En 1938, il est nommé directeur de l'école de médecine et de pharmacie de Rouen[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Née est maire de Rouen du 29 avril 1943 au 31 mai 1943, et conseiller d’arrondissement.
+C’est aussi un médecin rouennais, boulevard de la Marne no 63 à Rouen, professeur à l’école de médecine et médecin en chef à l’Hôtel-Dieu. En 1938, il est nommé directeur de l'école de médecine et de pharmacie de Rouen.
 Il est nommé chevalier de la Légion d'honneur en 1934.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_N%C3%A9e_(m%C3%A9decin)</t>
+          <t>Louis_Née_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1934)</t>
         </is>
